--- a/data/trans_dic/AIRE_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,39; 78,55</t>
+          <t>57,11; 79,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>59,45; 78,56</t>
+          <t>58,2; 78,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,17; 76,67</t>
+          <t>61,48; 77,02</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,95; 76,37</t>
+          <t>58,81; 76,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,65; 81,97</t>
+          <t>69,55; 82,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,14; 77,35</t>
+          <t>67,52; 78,09</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,27; 76,48</t>
+          <t>65,48; 76,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,87; 76,04</t>
+          <t>66,83; 76,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,71; 75,05</t>
+          <t>67,54; 74,93</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,07; 78,52</t>
+          <t>69,17; 79,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>65,21; 78,43</t>
+          <t>66,99; 78,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,18; 77,24</t>
+          <t>69,74; 77,4</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,61; 83,09</t>
+          <t>73,58; 82,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,59; 79,38</t>
+          <t>71,96; 79,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>74,02; 80,06</t>
+          <t>74,11; 79,79</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>73,15; 80,32</t>
+          <t>72,87; 80,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,92; 92,94</t>
+          <t>83,04; 92,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,05; 88,79</t>
+          <t>80,02; 88,59</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>71,24; 76,08</t>
+          <t>71,31; 76,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75,51; 81,62</t>
+          <t>75,55; 81,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74,23; 78,22</t>
+          <t>74,25; 78,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/AIRE_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>57,11; 79,94</t>
+          <t>56,39; 78,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58,2; 78,54</t>
+          <t>59,45; 78,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,48; 77,02</t>
+          <t>61,17; 76,67</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,81; 76,45</t>
+          <t>59,95; 76,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,55; 82,11</t>
+          <t>69,65; 81,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,52; 78,09</t>
+          <t>67,14; 77,35</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,48; 76,17</t>
+          <t>65,27; 76,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,83; 76,06</t>
+          <t>66,87; 76,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,54; 74,93</t>
+          <t>67,71; 75,05</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,17; 79,2</t>
+          <t>69,07; 78,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,99; 78,39</t>
+          <t>65,21; 78,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,74; 77,4</t>
+          <t>70,18; 77,24</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,58; 82,6</t>
+          <t>73,61; 83,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,96; 79,45</t>
+          <t>71,59; 79,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>74,11; 79,79</t>
+          <t>74,02; 80,06</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,87; 80,45</t>
+          <t>73,15; 80,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>83,04; 92,42</t>
+          <t>82,92; 92,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,02; 88,59</t>
+          <t>80,05; 88,79</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>71,31; 76,04</t>
+          <t>71,24; 76,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75,55; 81,9</t>
+          <t>75,51; 81,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74,25; 78,55</t>
+          <t>74,23; 78,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/AIRE_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>68,49%</t>
+          <t>66,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>70,06%</t>
+          <t>69,17%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>67,52%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,39; 78,55</t>
+          <t>52,63; 77,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>59,45; 78,56</t>
+          <t>58,63; 77,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,17; 76,67</t>
+          <t>58,79; 76,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>68,5%</t>
+          <t>69,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76,41%</t>
+          <t>75,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>72,74%</t>
+          <t>72,3%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,95; 76,37</t>
+          <t>60,14; 77,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,65; 81,97</t>
+          <t>68,46; 81,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,14; 77,35</t>
+          <t>66,73; 77,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>71,39%</t>
+          <t>71,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>71,63%</t>
+          <t>71,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71,5%</t>
+          <t>71,22%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,27; 76,48</t>
+          <t>64,81; 76,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,87; 76,04</t>
+          <t>66,73; 75,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,71; 75,05</t>
+          <t>67,39; 74,85</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>74,03%</t>
+          <t>74,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>74,38%</t>
+          <t>69,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>74,21%</t>
+          <t>71,82%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,07; 78,52</t>
+          <t>69,12; 78,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>65,21; 78,43</t>
+          <t>44,97; 77,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,18; 77,24</t>
+          <t>60,74; 76,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>78,43%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>75,7%</t>
+          <t>75,51%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>77,08%</t>
+          <t>77,03%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,61; 83,09</t>
+          <t>73,78; 83,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,59; 79,38</t>
+          <t>71,49; 79,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>74,02; 80,06</t>
+          <t>73,99; 79,95</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>77,03%</t>
+          <t>76,5%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>86,89%</t>
+          <t>90,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>83,1%</t>
+          <t>86,24%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>73,15; 80,32</t>
+          <t>71,32; 81,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,92; 92,94</t>
+          <t>80,65; 97,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,05; 88,79</t>
+          <t>78,04; 94,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>73,86%</t>
+          <t>78,06%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>77,84%</t>
+          <t>85,86%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>75,98%</t>
+          <t>82,83%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>71,24; 76,08</t>
+          <t>72,55; 82,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75,51; 81,62</t>
+          <t>82,56; 88,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74,23; 78,22</t>
+          <t>79,81; 85,5</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>73,59%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>77,84%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>75,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>70,8; 75,9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>73,71; 84,17</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>73,35; 80,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/AIRE_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,63; 77,65</t>
+          <t>52,95; 77,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58,63; 77,81</t>
+          <t>59,14; 79,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58,79; 76,27</t>
+          <t>59,41; 75,36</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>60,14; 77,08</t>
+          <t>60,02; 77,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>68,46; 81,19</t>
+          <t>67,22; 81,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,73; 77,05</t>
+          <t>66,99; 77,35</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,81; 76,23</t>
+          <t>65,3; 76,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,73; 75,91</t>
+          <t>66,66; 75,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,39; 74,85</t>
+          <t>67,16; 74,5</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,12; 78,85</t>
+          <t>69,21; 79,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,97; 77,66</t>
+          <t>48,31; 77,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,74; 76,45</t>
+          <t>59,46; 76,6</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,78; 83,22</t>
+          <t>73,79; 83,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,49; 79,21</t>
+          <t>71,58; 79,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,99; 79,95</t>
+          <t>74,0; 79,53</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,32; 81,04</t>
+          <t>71,29; 81,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>80,65; 97,12</t>
+          <t>80,32; 97,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,04; 94,92</t>
+          <t>78,12; 95,71</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>72,55; 82,98</t>
+          <t>72,64; 82,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,56; 88,76</t>
+          <t>82,49; 88,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,81; 85,5</t>
+          <t>79,62; 85,46</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>70,8; 75,9</t>
+          <t>70,89; 76,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>73,71; 84,17</t>
+          <t>73,6; 84,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>73,35; 80,05</t>
+          <t>73,35; 80,19</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no está dispuesta a pagar para reducir la contaminación del aire (impuesto durante 5 años)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>123927</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>108808</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>232735</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>99217; 145143</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>93033; 124597</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>204758; 259752</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>128936</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>149291</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>278226</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>112131; 144644</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>133092; 160705</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>257783; 297660</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>209841</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>183849</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>393690</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>192886; 226046</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>171570; 195416</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>371220; 411777</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>248299</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>249509</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>497808</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>231043; 264085</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>173605; 279457</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>412158; 530970</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>241027</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>222135</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>463162</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>226606; 254916</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>210574; 233130</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>444961; 478181</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>148802</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>368435</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>517237</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>138683; 157889</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>325484; 394333</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>468488; 573994</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>117115</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>202976</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>320091</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>108969; 124347</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>195017; 209616</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>307690; 330240</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1315</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2107</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3422</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1217946</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1485002</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2702949</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1173195; 1257849</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1404113; 1610666</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2613514; 2857112</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>